--- a/data/GLA/program_url_pair.xlsx
+++ b/data/GLA/program_url_pair.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C278"/>
+  <dimension ref="A1:C280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Academic Practice [MEd: Online distance learning] - MEd: Online distance learning</t>
+          <t>Taught degree programmes A‑Z</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/academicpractice/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -454,12 +454,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Adult Education for Social Change (International Master) [IntM] - IntM</t>
+          <t>Academic Practice MEd: Online distance learning</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/adult-education-for-social-change/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/academicpractice/</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -467,12 +467,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Adult Learning, Community Development &amp; Youth Work (CLD Standards Council Accredited) [MEd/PgDip] - MEd/PgDip</t>
+          <t>Adult Education for Social Change (International Master) IntM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/adult-learning-community-development-youth-work/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/adult-education-for-social-change/</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -480,12 +480,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Advanced Functional Materials [MSc] - MSc</t>
+          <t>Adult Learning, Community Development &amp; Youth Work (CLD Standards Council Accredited) MEd/PgDip</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/advanced-functional-materials/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/adult-learning-community-development-youth-work/</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -493,12 +493,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Advanced Imaging &amp; Sensing [MSc] - MSc</t>
+          <t>Advanced Functional Materials MSc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/advanced-imaging-sensing/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/advanced-functional-materials/</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -506,12 +506,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Advanced Practice in Veterinary Nursing [MSc/PgDip/PgCert: Online distance learning] - MSc/PgDip/PgCert: Online distance learning</t>
+          <t>Advanced Imaging &amp; Sensing MSc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/vet-nurse/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/advanced-imaging-sensing/</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -519,12 +519,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Advanced Statistics [MRes] - MRes</t>
+          <t>Advanced Practice in Veterinary Nursing MSc/PgDip/PgCert: Online distance learning</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/advanced-statistics/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/vet-nurse/</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -532,12 +532,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Aerospace Engineering [MSc] - MSc</t>
+          <t>Advanced Statistics MRes</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/aerospace-engineering/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/advanced-statistics/</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -545,12 +545,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Aerospace Engineering &amp; Management [MSc] - MSc</t>
+          <t>Aerospace Engineering MSc</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/aerospace-engineering-management/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/aerospace-engineering/</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -558,12 +558,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Human Anatomy [PgCert] - PgCert</t>
+          <t>Aerospace Engineering &amp; Management MSc</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/humananatomy/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/aerospace-engineering-management/</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -571,12 +571,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ancient Cultures [MSc] - MSc</t>
+          <t>Human Anatomy PgCert</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/ancient-cultures/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/humananatomy/</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -584,12 +584,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Animal Nutrition [MSc/PgDip/PgCert/CPD: Online distance learning] - MSc/PgDip/PgCert/CPD: Online distance learning</t>
+          <t>Ancient Cultures MSc</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/animal-nutrition/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/ancient-cultures/</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -597,12 +597,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Animal Welfare Science, Ethics &amp; Law [MSc] - MSc</t>
+          <t>Animal Nutrition MSc/PgDip/PgCert/CPD: Online distance learning</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/animal-welfare-science/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/animal-nutrition/</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -610,12 +610,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Applied Linguistics [MSc] - MSc</t>
+          <t>Animal Welfare Science, Ethics &amp; Law MSc</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/applied-linguistics/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/animal-welfare-science/</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -623,12 +623,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mathematics / Applied Mathematics [MSc] - MSc</t>
+          <t>Applied Linguistics MSc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/mathematicsappliedmathematics/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/applied-linguistics/</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -636,12 +636,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Applied Neuropsychology [MSc(MedSci)/PgDip] - MSc(MedSci)/PgDip</t>
+          <t>Mathematics / Applied Mathematics MSc</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/applied-neuropsychology/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/mathematicsappliedmathematics/</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -649,12 +649,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Archaeology [MSc] - MSc</t>
+          <t>Applied Neuropsychology MSc(MedSci)/PgDip</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/archaeology/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/applied-neuropsychology/</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -662,12 +662,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Art History [MLitt] - MLitt</t>
+          <t>Archaeology MSc</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/art-history/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/archaeology/</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -675,12 +675,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Art History: Collecting &amp; Provenance in an International Context [MSc] - MSc</t>
+          <t>Art History MLitt</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/art-history-collecting-provenance/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/art-history/</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -688,12 +688,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Art History: Dress &amp; Textile Histories [MLitt] - MLitt</t>
+          <t>Art History: Collecting &amp; Provenance in an International Context MSc</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/dress-textile-histories/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/art-history-collecting-provenance/</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -701,12 +701,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Art History: Technical Art History, Making &amp; Meaning [MLitt] - MLitt</t>
+          <t>Art History: Dress &amp; Textile Histories MLitt</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/technical-art-history/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/dress-textile-histories/</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -714,12 +714,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Astrophysics [MSc] - MSc</t>
+          <t>Art History: Technical Art History, Making &amp; Meaning MLitt</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/astrophysics/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/technical-art-history/</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -727,12 +727,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Behavioural Science [MSc] - MSc</t>
+          <t>Astrophysics MSc</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/behavioural-science/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/astrophysics/</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -740,12 +740,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bioinformatics [MSc/PgDip/PgCert] - MSc/PgDip/PgCert</t>
+          <t>Behavioural Science MSc</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/bioinformatics/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/behavioural-science/</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -753,12 +753,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biomedical Engineering [MSc] - MSc</t>
+          <t>Bioinformatics MSc/PgDip/PgCert</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/biomedical-engineering/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/bioinformatics/</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -766,12 +766,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biomedical Sciences [MSc] - MSc</t>
+          <t>Biomedical Engineering MSc</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/biomedical-science-msc/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/biomedical-engineering/</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -779,12 +779,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biomedical Sciences [MRes] - MRes</t>
+          <t>Biomedical Sciences MSc</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/biomedical-sciences-mres/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/biomedical-science-msc/</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -792,12 +792,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Statistics [MSc] - MSc</t>
+          <t>Biomedical Sciences MRes</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/statistics/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/biomedical-sciences-mres/</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -805,12 +805,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biotechnology [MSc] - MSc</t>
+          <t>Statistics MSc</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/biotechnology/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/statistics/</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -818,12 +818,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Biotechnology &amp; Management [MSc/PgDip] - MSc/PgDip</t>
+          <t>Biotechnology MSc</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/biotechnology-management/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/biotechnology/</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -831,12 +831,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Brain Sciences [MSc] - MSc</t>
+          <t>Biotechnology &amp; Management MSc/PgDip</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/brain-sciences/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/biotechnology-management/</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -844,12 +844,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cancer Research &amp; Precision Oncology [MSc] - MSc</t>
+          <t>Brain Sciences MSc</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/cancer-research-precision-oncology/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/brain-sciences/</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -857,12 +857,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Cardiovascular Sciences [MSc(MedSci)] - MSc(MedSci)</t>
+          <t>Cancer Research &amp; Precision Oncology MSc</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/cardiovascular-sciences/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/cancer-research-precision-oncology/</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -870,12 +870,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Celtic Studies [MSc] - MSc</t>
+          <t>Cardiovascular Sciences MSc(MedSci)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/celticstudies/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/cardiovascular-sciences/</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -883,12 +883,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Central &amp; East European, Russian &amp; Eurasian Studies (Erasmus Mundus International Master) [IntM] - IntM</t>
+          <t>Celtic Studies MSc</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/central-east-european-russian-eurasian-studies/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/celticstudies/</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -896,12 +896,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Chemical Biology [MSc] - MSc</t>
+          <t>Central &amp; East European, Russian &amp; Eurasian Studies (Erasmus Mundus International Master) IntM</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/chemical-biology/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/central-east-european-russian-eurasian-studies/</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -909,12 +909,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Chemistry [MSc] - MSc</t>
+          <t>Chemical Biology MSc</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/chemistry/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/chemical-biology/</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -922,12 +922,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Chemistry with Medicinal Chemistry [MSc] - MSc</t>
+          <t>Chemistry MSc</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/chemistry-medicinal-chemistry/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/chemistry/</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -935,12 +935,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Child Health [PgCert] - PgCert</t>
+          <t>Chemistry with Medicinal Chemistry MSc</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/child-health/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/chemistry-medicinal-chemistry/</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -948,12 +948,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Childhood Practice [MEd/PgDip] - MEd/PgDip</t>
+          <t>Child Health PgCert</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/childhood-practice/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/child-health/</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -961,12 +961,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Children's Literature &amp; Literacies [MEd] - MEd</t>
+          <t>Childhood Practice MEd/PgDip</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/childrens-literature-literacies/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/childhood-practice/</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -974,12 +974,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Children's Literature, Media &amp; Culture (International Master) [IntM] - IntM</t>
+          <t>Children's Literature &amp; Literacies MEd</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/childrens-literature-media-culture/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/childrens-literature-literacies/</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -987,12 +987,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Church History &amp; Theology [MTh] - MTh</t>
+          <t>Children's Literature, Media &amp; Culture (International Master) IntM</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/church-history-theology/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/childrens-literature-media-culture/</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1000,12 +1000,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>City Planning [MSc] - MSc</t>
+          <t>Church History &amp; Theology MTh</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/city-planning/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/church-history-theology/</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1013,12 +1013,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>City Planning &amp; Real Estate Development [MSc] - MSc</t>
+          <t>City Planning MSc</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/city-planning-real-estate-development/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/city-planning/</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1026,12 +1026,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Civil Engineering [MSc] - MSc</t>
+          <t>City Planning &amp; Real Estate Development MSc</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/civil-engineering/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/city-planning-real-estate-development/</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1039,12 +1039,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Civil Engineering &amp; Management [MSc] - MSc</t>
+          <t>Civil Engineering MSc</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/civil-engineering-management/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/civil-engineering/</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1052,12 +1052,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Classics &amp; Ancient History [MSc] - MSc</t>
+          <t>Civil Engineering &amp; Management MSc</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/classics/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/civil-engineering-management/</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1065,12 +1065,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Clinical Critical Care [MSc/PgDip/PgCert: Online distance learning] - MSc/PgDip/PgCert: Online distance learning</t>
+          <t>Classics &amp; Ancient History MSc</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/clinical-critical-care-online/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/classics/</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1078,12 +1078,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Clinical Neuropsychology [MSc(MedSci)/PgDip] - MSc(MedSci)/PgDip</t>
+          <t>Clinical Critical Care MSc/PgDip/PgCert: Online distance learning</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/clinical-neuropsychology/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/clinical-critical-care-online/</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1091,12 +1091,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Clinical Neuropsychology Knowledge &amp; Practice [MSc(MedSci)] - MSc(MedSci)</t>
+          <t>Clinical Neuropsychology MSc(MedSci)/PgDip</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/clinicalneuropsychologyknowledgepractice/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/clinical-neuropsychology/</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1104,12 +1104,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Clinical Neuropsychology Practice [PgCert] - PgCert</t>
+          <t>Clinical Neuropsychology Knowledge &amp; Practice MSc(MedSci)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/clinicalneuropsychologypractice/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/clinicalneuropsychologyknowledgepractice/</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1117,12 +1117,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Clinical Pharmacology [MSc(MedSci)] - MSc(MedSci)</t>
+          <t>Clinical Neuropsychology Practice PgCert</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/clinicalpharmacology/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/clinicalneuropsychologypractice/</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1130,12 +1130,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Clinical Psychology [DClinPsy] - DClinPsy</t>
+          <t>Clinical Pharmacology MSc(MedSci)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/clinicalpsychology/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/clinicalpharmacology/</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1143,12 +1143,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Science Communications [MSc] - MSc</t>
+          <t>Clinical Psychology DClinPsy</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/science-communications/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/clinicalpsychology/</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1156,12 +1156,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Comparative Literature [MLitt] - MLitt</t>
+          <t>Science Communications MSc</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/comparativeliterature/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/science-communications/</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1169,12 +1169,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Computer Systems Engineering [MSc] - MSc</t>
+          <t>Comparative Literature MLitt</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/computersystemsengineering/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/comparativeliterature/</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1182,12 +1182,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Computing Science [MSc] - MSc</t>
+          <t>Computer Systems Engineering MSc</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/computingsciencemsc/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/computersystemsengineering/</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1195,12 +1195,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Conflict Archaeology &amp; Heritage [MSc/PgDip] - MSc/PgDip</t>
+          <t>Computing Science MSc</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/conflictarchaeology/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/computingsciencemsc/</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1208,12 +1208,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Conservation Management of African Ecosystems [MSc] - MSc</t>
+          <t>Conflict Archaeology &amp; Heritage MSc/PgDip</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/conservationmanagementafricanecosystems/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/conflictarchaeology/</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1221,12 +1221,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Corporate &amp; Financial Law [LLM] - LLM</t>
+          <t>Conservation Management of African Ecosystems MSc</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/corporateandfinanciallaw/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/conservationmanagementafricanecosystems/</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1234,12 +1234,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Corporate Governance &amp; Accountability [MSc] - MSc</t>
+          <t>Corporate &amp; Financial Law LLM</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/governanceaccountability/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/corporateandfinanciallaw/</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1247,12 +1247,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Creative Industries &amp; Cultural Policy [MSc] - MSc</t>
+          <t>Corporate Governance &amp; Accountability MSc</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/creativeindustriesandculturalpolicy/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/governanceaccountability/</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1260,12 +1260,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Creative Writing [MLitt] - MLitt</t>
+          <t>Creative Industries &amp; Cultural Policy MSc</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/creativewritingmlitt/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/creativeindustriesandculturalpolicy/</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -1273,12 +1273,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Creative Writing (online) [MLitt: Online distance learning] - MLitt: Online distance learning</t>
+          <t>Creative Writing MLitt</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/creativewritingdistancelearning/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/creativewritingmlitt/</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -1286,12 +1286,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Criminology [MRes] - MRes</t>
+          <t>Creative Writing (online) MLitt: Online distance learning</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/criminology/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/creativewritingdistancelearning/</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -1299,12 +1299,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Criminology &amp; Criminal Justice [MSc] - MSc</t>
+          <t>Criminology MRes</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/criminology-criminal-justice/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/criminology/</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -1312,12 +1312,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Critical Care [MSc/PgDip/PgCert] - MSc/PgDip/PgCert</t>
+          <t>Criminology &amp; Criminal Justice MSc</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/criticalcare/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/criminology-criminal-justice/</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -1325,12 +1325,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Curatorial Practice (Contemporary Art) (in conjunction with The Glasgow School of Art) [MLitt] - MLitt</t>
+          <t>Critical Care MSc/PgDip/PgCert</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/curatorialpractice/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/criticalcare/</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -1338,12 +1338,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Data Analytics [MSc/PgDip/PgCert: Online distance learning] - MSc/PgDip/PgCert: Online distance learning</t>
+          <t>Curatorial Practice (Contemporary Art) (in conjunction with The Glasgow School of Art) MLitt</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/dataanalyticsonline/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/curatorialpractice/</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -1351,12 +1351,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Data Analytics [MSc] - MSc</t>
+          <t>Data Analytics MSc/PgDip/PgCert: Online distance learning</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/dataanalytics/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/dataanalyticsonline/</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -1364,12 +1364,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Data Analytics for Economics &amp; Finance [MSc] - MSc</t>
+          <t>Data Analytics MSc</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/dataanalyticsforeconomicsfinance/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/dataanalytics/</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -1377,12 +1377,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Data Analytics for Government [MSc/PgDip/PgCert: Online distance learning] - MSc/PgDip/PgCert: Online distance learning</t>
+          <t>Data Analytics for Economics &amp; Finance MSc</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/dataanalyticsforgovernment/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/dataanalyticsforeconomicsfinance/</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -1390,12 +1390,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Data Science [MSc] - MSc</t>
+          <t>Data Analytics for Government MSc/PgDip/PgCert: Online distance learning</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/datascience/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/dataanalyticsforgovernment/</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -1403,12 +1403,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Development Studies [MSc] - MSc</t>
+          <t>Data Science MSc</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/developmentstudies/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/datascience/</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -1416,12 +1416,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Digital Cancer Technologies [MSc] - MSc</t>
+          <t>Development Studies MSc</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/digital-cancer-technologies/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/developmentstudies/</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -1429,12 +1429,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Digital Society [MSc] - MSc</t>
+          <t>Digital Cancer Technologies MSc</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/digitalsociety/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/digital-cancer-technologies/</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -1442,12 +1442,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Diploma in Professional Legal Practice [PgDip] - PgDip</t>
+          <t>Digital Society MSc</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/professionallegalpracticediploma/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/digitalsociety/</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -1455,12 +1455,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Early Modern History [MSc/PgDip] - MSc/PgDip</t>
+          <t>Diploma in Professional Legal Practice PgDip</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/earlymodernhistory/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/professionallegalpracticediploma/</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -1468,12 +1468,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Earth Futures: Environments, Communities, Relationships [MSc] - MSc</t>
+          <t>Early Modern History MSc/PgDip</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/earthfutures/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/earlymodernhistory/</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -1481,12 +1481,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Ecology &amp; Environmental Biology [MRes] - MRes</t>
+          <t>Earth Futures: Environments, Communities, Relationships MSc</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/ecologyenvironmentalbiology/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/earthfutures/</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -1494,12 +1494,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Economic Development (with Finance &amp; Policy Pathways) [MSc] - MSc</t>
+          <t>Ecology &amp; Environmental Biology MRes</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/economicdevelopmentwithfinancepolicypathways/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/ecologyenvironmentalbiology/</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -1507,12 +1507,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Economics [MRes] - MRes</t>
+          <t>Economic Development (with Finance &amp; Policy Pathways) MSc</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/economics/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/economicdevelopmentwithfinancepolicypathways/</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -1520,12 +1520,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Economics, International Banking &amp; Finance [MSc] - MSc</t>
+          <t>Economics MRes</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/economicsinternationalbankingfinance/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/economics/</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -1533,12 +1533,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Education [MSc: Online distance learning] - MSc: Online distance learning</t>
+          <t>Economics, International Banking &amp; Finance MSc</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/educationonline/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/economicsinternationalbankingfinance/</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -1546,12 +1546,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Education (Primary) [PGDE] - PGDE</t>
+          <t>Education MSc: Online distance learning</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/educationprimary/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/educationonline/</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -1559,12 +1559,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Education (Primary) (Dumfries campus) [PGDE] - PGDE</t>
+          <t>Education (Primary) PGDE</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/EducationPrimaryDumfriesCampus/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/educationprimary/</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -1572,12 +1572,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Education (Secondary STEM Subjects) (Dumfries campus) [PGDE] - PGDE</t>
+          <t>Education (Primary) (Dumfries campus) PGDE</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/Education-Secondary-STEM-Subjects/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/EducationPrimaryDumfriesCampus/</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -1585,12 +1585,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Education (Secondary) [PGDE] - PGDE</t>
+          <t>Education (Secondary STEM Subjects) (Dumfries campus) PGDE</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/educationsecondary/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/Education-Secondary-STEM-Subjects/</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -1598,12 +1598,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Education for Sustainable Futures in Adult, Community &amp; Youth Contexts [MSc] - MSc</t>
+          <t>Education (Secondary) PGDE</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/educationalstudiesadultyouthcommunity/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/educationsecondary/</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -1611,12 +1611,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Education in Museums &amp; Heritage (Erasmus Mundus International Master) [IntM] - IntM</t>
+          <t>Education for Sustainable Futures in Adult, Community &amp; Youth Contexts MSc</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/educationinmuseumsandheritage/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/educationalstudiesadultyouthcommunity/</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -1624,12 +1624,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Education Policies for Global Development (International Master) [IntM] - IntM</t>
+          <t>Education in Museums &amp; Heritage (Erasmus Mundus International Master) IntM</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/educationpoliciesforglobaldevelopment/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/educationinmuseumsandheritage/</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -1637,12 +1637,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Education, Public Policy &amp; Equity [MSc] - MSc</t>
+          <t>Education Policies for Global Development (International Master) IntM</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/educationpublicpolicyequity/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/educationpoliciesforglobaldevelopment/</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -1650,12 +1650,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Educational Leadership [MEd: Online distance learning] - MEd: Online distance learning</t>
+          <t>Education, Public Policy &amp; Equity MSc</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/educationalleadership/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/educationpublicpolicyequity/</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -1663,12 +1663,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Educational Studies [MSc] - MSc</t>
+          <t>Educational Leadership MEd: Online distance learning</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/educationalstudiesmsc/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/educationalleadership/</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -1676,12 +1676,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Educational Studies [MEd] - MEd</t>
+          <t>Educational Studies MSc</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/educationalstudiesmed/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/educationalstudiesmsc/</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -1689,12 +1689,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Electronics &amp; Electrical Engineering [MSc] - MSc</t>
+          <t>Educational Studies MEd</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/electronicselectricalengineering/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/educationalstudiesmed/</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -1702,12 +1702,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Electronics &amp; Electrical Engineering &amp; Management [MSc] - MSc</t>
+          <t>Electronics &amp; Electrical Engineering MSc</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/electronicselectricalengineeringmanagement/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/electronicselectricalengineering/</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -1715,12 +1715,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Electronics &amp; Photonics Manufacturing [MSc] - MSc</t>
+          <t>Electronics &amp; Electrical Engineering &amp; Management MSc</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/electronicsmanufacturing/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/electronicselectricalengineeringmanagement/</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -1728,12 +1728,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>End of Life Studies [MSc/PgDip/PgCert: Online distance learning] - MSc/PgDip/PgCert: Online distance learning</t>
+          <t>Electronics &amp; Photonics Manufacturing MSc</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/endoflifestudies/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/electronicsmanufacturing/</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -1741,12 +1741,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Endodontics [MSc(DentSci)] - MSc(DentSci)</t>
+          <t>End of Life Studies MSc/PgDip/PgCert: Online distance learning</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/endodontics/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/endoflifestudies/</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -1754,12 +1754,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>English Language &amp; Linguistics [MSc] - MSc</t>
+          <t>Endodontics MSc(DentSci)</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/englishlanguagelinguistics/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/endodontics/</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -1767,12 +1767,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>English Literature [MLitt] - MLitt</t>
+          <t>English Language &amp; Linguistics MSc</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/englishliterature/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/englishlanguagelinguistics/</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -1780,12 +1780,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>English Literature: American Modern Literature [MLitt] - MLitt</t>
+          <t>English Literature MLitt</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/americanmodernliterature/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/englishliterature/</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -1793,12 +1793,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>English Literature: Fantasy [MLitt] - MLitt</t>
+          <t>English Literature: American Modern Literature MLitt</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/fantasy/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/americanmodernliterature/</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -1806,12 +1806,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>English Literature: Modernities - Literature, Culture, Theory [MLitt] - MLitt</t>
+          <t>English Literature: Fantasy MLitt</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/modernities/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/fantasy/</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -1819,12 +1819,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Enhanced Practice in Education (Dumfries campus) [MSc] - MSc</t>
+          <t>English Literature: Modernities - Literature, Culture, Theory MLitt</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/enhancedpracticeineducation/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/modernities/</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -1832,12 +1832,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Environment &amp; Sustainable Development [MSc] - MSc</t>
+          <t>Enhanced Practice in Education (Dumfries campus) MSc</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/environmentsustainabledevelopment/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/enhancedpracticeineducation/</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -1845,12 +1845,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Environment, Culture &amp; Communication (Dumfries campus) [MLitt] - MLitt</t>
+          <t>Environment &amp; Sustainable Development MSc</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/environmentculturecommunication/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/environmentsustainabledevelopment/</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -1858,12 +1858,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Environmental Futures: Sustainable Systems [MSc] - MSc</t>
+          <t>Environment, Culture &amp; Communication (Dumfries campus) MLitt</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/environmentalfuturessustainablesystems/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/environmentculturecommunication/</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -1871,12 +1871,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Environmental Risk Management (Dumfries campus) [MSc] - MSc</t>
+          <t>Environmental Futures: Sustainable Systems MSc</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/environmentalriskmanagement/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/environmentalfuturessustainablesystems/</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -1884,12 +1884,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Epidemiology of Infectious Diseases &amp; Antimicrobial Resistance [MSc] - MSc</t>
+          <t>Environmental Risk Management (Dumfries campus) MSc</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/infectiousdiseasesantimicrobialresistance/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/environmentalriskmanagement/</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -1897,12 +1897,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Film &amp; Television Studies [MLitt] - MLitt</t>
+          <t>Epidemiology of Infectious Diseases &amp; Antimicrobial Resistance MSc</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/filmtelevisionstudies/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/infectiousdiseasesantimicrobialresistance/</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -1910,12 +1910,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Film Curation [MSc] - MSc</t>
+          <t>Film &amp; Television Studies MLitt</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/filmcuration/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/filmtelevisionstudies/</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -1923,12 +1923,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Filmmaking &amp; Media Arts [MSc] - MSc</t>
+          <t>Film Curation MSc</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/filmmaking/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/filmcuration/</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -1936,12 +1936,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Finance &amp; Management [MSc] - MSc</t>
+          <t>Filmmaking &amp; Media Arts MSc</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/financemanagement/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/filmmaking/</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -1949,12 +1949,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Financial Economics [MSc] - MSc</t>
+          <t>Finance &amp; Management MSc</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/financialeconomics/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/financemanagement/</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -1962,12 +1962,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Financial Modelling &amp; Investment [MSc] - MSc</t>
+          <t>Financial Economics MSc</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/financialmodellingandinvestment/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/financialeconomics/</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -1975,12 +1975,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Financial Risk Management [MSc] - MSc</t>
+          <t>Financial Modelling &amp; Investment MSc</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/financialriskmanagement/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/financialmodellingandinvestment/</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -1988,12 +1988,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Financial Technology [MSc] - MSc</t>
+          <t>Financial Risk Management MSc</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/financialtechnology/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/financialriskmanagement/</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -2001,12 +2001,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Food Security [MSc] - MSc</t>
+          <t>Financial Technology MSc</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/foodsecurity/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/financialtechnology/</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -2014,12 +2014,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Gender History [MSc/PgDip] - MSc/PgDip</t>
+          <t>Food Security MSc</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/genderhistory/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/foodsecurity/</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -2027,12 +2027,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Genetic &amp; Genomic Counselling (with Work Placement) [MSc(MedSci)] - MSc(MedSci)</t>
+          <t>Gender History MSc/PgDip</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/geneticandgenomiccounsellingwithworkplacement/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/genderhistory/</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -2040,12 +2040,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Geoinformation Technology &amp; Cartography [MSc/PgDip/PgCert] - MSc/PgDip/PgCert</t>
+          <t>Genetic &amp; Genomic Counselling (with Work Placement) MSc(MedSci)</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/geoinformationtechnologyandcartography/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/geneticandgenomiccounsellingwithworkplacement/</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -2053,12 +2053,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Geomatics &amp; Management [MSc] - MSc</t>
+          <t>Geoinformation Technology &amp; Cartography MSc/PgDip/PgCert</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/geomaticsmanagement/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/geoinformationtechnologyandcartography/</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -2066,12 +2066,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Geospatial &amp; Mapping Sciences [MSc/PgDip/PgCert] - MSc/PgDip/PgCert</t>
+          <t>Geomatics &amp; Management MSc</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/geospatialandmappingsciences/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/geomaticsmanagement/</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -2079,12 +2079,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Global Economy [MSc] - MSc</t>
+          <t>Geospatial &amp; Mapping Sciences MSc/PgDip/PgCert</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/globaleconomy/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/geospatialandmappingsciences/</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -2092,12 +2092,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Global Gender History [MSc/PgDip/PgCert: Online distance learning] - MSc/PgDip/PgCert: Online distance learning</t>
+          <t>Global Economy MSc</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/global-gender-history/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/globaleconomy/</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -2105,12 +2105,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Global Health [MSc/MRes] - MSc/MRes</t>
+          <t>Global Gender History MSc/PgDip/PgCert: Online distance learning</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/globalhealth/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/global-gender-history/</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -2118,12 +2118,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Global History [MSc] - MSc</t>
+          <t>Global Health MSc/MRes</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/globalhistory/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/globalhealth/</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -2131,12 +2131,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Global Markets, Local Creativities (Erasmus Mundus International Master) [IntM] - IntM</t>
+          <t>Global History MSc</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/globalmarketslocalcreativities/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/globalhistory/</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -2144,12 +2144,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Global Mental Health [MSc/PgDip/PgCert] - MSc/PgDip/PgCert</t>
+          <t>Global Markets, Local Creativities (Erasmus Mundus International Master) IntM</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/globalmentalhealth/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/globalmarketslocalcreativities/</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -2157,12 +2157,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Global Mental Health (online) [MSc/PgDip/PgCert: Online distance learning] - MSc/PgDip/PgCert: Online distance learning</t>
+          <t>Global Mental Health MSc/PgDip/PgCert</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/globalmentalhealthonline/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/globalmentalhealth/</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -2170,12 +2170,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Global Migrations &amp; Social Justice [MSc] - MSc</t>
+          <t>Global Mental Health (online) MSc/PgDip/PgCert: Online distance learning</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/globalmigrationssocialjusticemsc/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/globalmentalhealthonline/</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -2183,12 +2183,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Global Security [MSc] - MSc</t>
+          <t>Global Migrations &amp; Social Justice MSc</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/globalsecurity/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/globalmigrationssocialjusticemsc/</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -2196,12 +2196,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Health Care, Advanced Practice in [MSc(MedSci)] - MSc(MedSci)</t>
+          <t>Global Security MSc</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/health-care/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/globalsecurity/</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -2209,12 +2209,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Health Services Management [MSc/PgDip/PgCert] - MSc/PgDip/PgCert</t>
+          <t>Health Care, Advanced Practice in MSc(MedSci)</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/healthservicemanagement/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/health-care/</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -2222,12 +2222,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Health Technology Assessment [MSc/PgDip/PgCert: Online distance learning] - MSc/PgDip/PgCert: Online distance learning</t>
+          <t>Health Services Management MSc/PgDip/PgCert</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/healthtechnologyassessment/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/healthservicemanagement/</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -2235,12 +2235,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Health-Professions Education / Health-Professions Education (with Research) [MSc/MSc (Research)/PgDip/PgCert: Online distance learning] - MSc/MSc (Research)/PgDip/PgCert: Online distance learning</t>
+          <t>Health Technology Assessment MSc/PgDip/PgCert: Online distance learning</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/health-professionseducation/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/healthtechnologyassessment/</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -2248,12 +2248,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Healthcare Chaplaincy [PgCert] - PgCert</t>
+          <t>Health-Professions Education / Health-Professions Education (with Research) MSc/MSc (Research)/PgDip/PgCert: Online distance learning</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/healthcarechaplaincy/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/health-professionseducation/</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -2261,12 +2261,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Historically Informed Performance Practice (in conjunction with the Royal Conservatoire of Scotland) [MA] - MA</t>
+          <t>Healthcare Chaplaincy PgCert</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/historicallyinformedperformancepractice/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/healthcarechaplaincy/</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -2274,12 +2274,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>History [MSc/PgDip] - MSc/PgDip</t>
+          <t>Historically Informed Performance Practice (in conjunction with the Royal Conservatoire of Scotland) MA</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/history/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/historicallyinformedperformancepractice/</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -2287,12 +2287,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Housing Studies [MSc/PgDip] - MSc/PgDip</t>
+          <t>History MSc/PgDip</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/housingstudies/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/history/</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -2300,12 +2300,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Human Geography: Spaces, Politics, Ecologies [MRes] - MRes</t>
+          <t>Housing Studies MSc/PgDip</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/humangeographyspacespoliticsecologies/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/housingstudies/</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -2313,12 +2313,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Human Nutrition [MSc(MedSci)] - MSc(MedSci)</t>
+          <t>Human Geography: Spaces, Politics, Ecologies MRes</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/humannutrition/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/humangeographyspacespoliticsecologies/</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -2326,12 +2326,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Human Rights [LLM] - LLM</t>
+          <t>Human Nutrition MSc(MedSci)</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/human-rights/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/humannutrition/</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -2339,12 +2339,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Human Rights &amp; International Politics [MSc] - MSc</t>
+          <t>Human Rights LLM</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/humanrightsinternationalpolitics/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/human-rights/</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -2352,12 +2352,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Immunology &amp; Inflammatory Disease [MSc] - MSc</t>
+          <t>Human Rights &amp; International Politics MSc</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/immunologyinflammatorydisease/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/humanrightsinternationalpolitics/</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -2365,12 +2365,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>In Headship [PgDip] - PgDip</t>
+          <t>Immunology &amp; Inflammatory Disease MSc</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/inheadship/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/immunologyinflammatorydisease/</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -2378,12 +2378,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Inclusive Education: Research, Policy &amp; Practice [MEd] - MEd</t>
+          <t>In Headship PgDip</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/inclusiveeducationresearchpolicypracticemed/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/inheadship/</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -2391,12 +2391,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Inclusive Education: Research, Policy &amp; Practice [PgDip/PgCert: Online distance learning available] - PgDip/PgCert: Online distance learning available</t>
+          <t>Inclusive Education: Research, Policy &amp; Practice MEd</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/inclusiveeducationpolicypracticepgdip/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/inclusiveeducationresearchpolicypracticemed/</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -2404,12 +2404,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Industrial Heterogeneous Catalysis [MRes] - MRes</t>
+          <t>Inclusive Education: Research, Policy &amp; Practice PgDip/PgCert: Online distance learning available</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/industrialheterogeneouscatalysis/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/inclusiveeducationpolicypracticepgdip/</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -2417,12 +2417,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Infection Biology (with specialisms) [MSc] - MSc</t>
+          <t>Industrial Heterogeneous Catalysis MRes</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/infectionbiologywithspecialisms/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/industrialheterogeneouscatalysis/</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -2430,12 +2430,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Information Management &amp; Preservation [MSc/PgDip/PgCert] - MSc/PgDip/PgCert</t>
+          <t>Infection Biology (with specialisms) MSc</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/informationmanagementpreservation/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/infectionbiologywithspecialisms/</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -2443,12 +2443,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Information Technology [MSc] - MSc</t>
+          <t>Information Management &amp; Preservation MSc/PgDip/PgCert</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/informationtechnology/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/informationmanagementpreservation/</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -2456,12 +2456,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Intellectual Property &amp; the Digital Economy [LLM] - LLM</t>
+          <t>Information Technology MSc</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/intellectualproperty/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/informationtechnology/</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -2469,12 +2469,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>International &amp; Comparative Education [MSc] - MSc</t>
+          <t>Intellectual Property &amp; the Digital Economy LLM</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/internationalandcomparativeeducation/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/intellectualproperty/</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -2482,12 +2482,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>International Accounting &amp; Financial Management [MAcc] - MAcc</t>
+          <t>International &amp; Comparative Education MSc</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/internationalaccountingfinancialmanagement/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/internationalandcomparativeeducation/</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -2495,12 +2495,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>International Business [MSc] - MSc</t>
+          <t>International Accounting &amp; Financial Management MAcc</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/internationalbusiness/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/internationalaccountingfinancialmanagement/</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -2508,12 +2508,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>International Commercial Law [LLM] - LLM</t>
+          <t>International Business MSc</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/internationalcommerciallaw/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/internationalbusiness/</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -2521,12 +2521,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>International Competition Law &amp; Policy [LLM] - LLM</t>
+          <t>International Commercial Law LLM</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/internationalcompetitionlawpolicy/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/internationalcommerciallaw/</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -2534,12 +2534,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>International Corporate Finance &amp; Banking [MSc] - MSc</t>
+          <t>International Competition Law &amp; Policy LLM</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/internationalcorporatefinancebanking/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/internationalcompetitionlawpolicy/</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -2547,12 +2547,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>International Economic Law [LLM] - LLM</t>
+          <t>International Corporate Finance &amp; Banking MSc</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/internationaleconomiclaw/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/internationalcorporatefinancebanking/</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -2560,12 +2560,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>International Finance [MFin] - MFin</t>
+          <t>International Economic Law LLM</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/internationalfinance/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/internationaleconomiclaw/</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -2573,12 +2573,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>International Financial Analysis [MSc] - MSc</t>
+          <t>International Finance MFin</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/internationalfinancialanalysis/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/internationalfinance/</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -2586,12 +2586,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>International Human Resource Management &amp; Development [MSc] - MSc</t>
+          <t>International Financial Analysis MSc</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/internationalhumanresourcemanagementdevelopment/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/internationalfinancialanalysis/</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -2599,12 +2599,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>International Law [LLM] - LLM</t>
+          <t>International Human Resource Management &amp; Development MSc</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/internationallaw/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/internationalhumanresourcemanagementdevelopment/</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -2612,12 +2612,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>International Law &amp; Security [LLM] - LLM</t>
+          <t>International Law LLM</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/internationallawandsecurity/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/internationallaw/</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -2625,12 +2625,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>International Law of Global Security, Peace &amp; Development (Erasmus Mundus International Master) [LLM] - LLM</t>
+          <t>International Law &amp; Security LLM</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/internationallawglobalsecuritypeacedevelopment/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/internationallawandsecurity/</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -2638,12 +2638,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>International Management &amp; Design Innovation [MSc] - MSc</t>
+          <t>International Law of Global Security, Peace &amp; Development (Erasmus Mundus International Master) LLM</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/internationalmanagementanddesigninnovation/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/internationallawglobalsecuritypeacedevelopment/</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -2651,12 +2651,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>International Relations [MRes] - MRes</t>
+          <t>International Management &amp; Design Innovation MSc</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/internationalrelationsresearch/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/internationalmanagementanddesigninnovation/</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -2664,12 +2664,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>International Relations [MSc] - MSc</t>
+          <t>International Relations MRes</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/internationalrelations/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/internationalrelationsresearch/</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -2677,12 +2677,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>International Strategic Marketing [MSc] - MSc</t>
+          <t>International Relations MSc</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/internationalstrategicmarketing/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/internationalrelations/</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -2690,12 +2690,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Into Headship [PgCert] - PgCert</t>
+          <t>International Strategic Marketing MSc</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/intoheadship/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/internationalstrategicmarketing/</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -2703,12 +2703,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Investment Banking &amp; Finance [MSc] - MSc</t>
+          <t>Into Headship PgCert</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/investmentbankingfinance/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/intoheadship/</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -2716,12 +2716,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Laboratory Management [MSc/PgDip/PgCert: Online distance learning] - MSc/PgDip/PgCert: Online distance learning</t>
+          <t>Investment Banking &amp; Finance MSc</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/laboratory-management/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/investmentbankingfinance/</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -2729,12 +2729,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Land &amp; Hydrographic Surveying [MSc/PgDip/PgCert] - MSc/PgDip/PgCert</t>
+          <t>Laboratory Management MSc/PgDip/PgCert: Online distance learning</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/landhydrographicsurveying/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/laboratory-management/</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -2742,12 +2742,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Land &amp; Hydrographic Surveying with Work Placement [MSc] - MSc</t>
+          <t>Land &amp; Hydrographic Surveying MSc/PgDip/PgCert</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/landhydrographicsurveyingworkplacement/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/landhydrographicsurveying/</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -2755,12 +2755,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Law [LLM] - LLM</t>
+          <t>Land &amp; Hydrographic Surveying with Work Placement MSc</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/law/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/landhydrographicsurveyingworkplacement/</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -2768,12 +2768,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Leadership &amp; Learning [PgCert: Online distance learning] - PgCert: Online distance learning</t>
+          <t>Law LLM</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/leadership-and-learning/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/law/</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -2781,12 +2781,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Leadership in Health &amp; Social Care [PgCert: Online distance learning] - PgCert: Online distance learning</t>
+          <t>Leadership &amp; Learning PgCert: Online distance learning</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/leadershiphealthsocialcare/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/leadership-and-learning/</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -2794,12 +2794,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Lymphoedema Management, Advanced [PgCert: Blended learning] - PgCert: Blended learning</t>
+          <t>Leadership in Health &amp; Social Care PgCert: Online distance learning</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/advanced-lymphoedema-management/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/leadershiphealthsocialcare/</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -2807,12 +2807,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Management [MSc] - MSc</t>
+          <t>Lymphoedema Management, Advanced PgCert: Blended learning</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/management/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/advanced-lymphoedema-management/</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -2820,12 +2820,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Management [MRes] - MRes</t>
+          <t>Management MSc</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/managementmres/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/management/</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -2833,12 +2833,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Management &amp; Sustainable Tourism (Dumfries campus) [MSc] - MSc</t>
+          <t>Management MRes</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/managementsustainabletourism/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/managementmres/</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -2846,12 +2846,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Management with Enterprise &amp; Business Growth [MSc] - MSc</t>
+          <t>Management &amp; Sustainable Tourism (Dumfries campus) MSc</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/managementwithenterprise/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/managementsustainabletourism/</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -2859,12 +2859,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Management with Human Resources [MSc] - MSc</t>
+          <t>Management with Enterprise &amp; Business Growth MSc</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/managementwithhumanresources/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/managementwithenterprise/</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -2872,12 +2872,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Management with International Finance [MSc] - MSc</t>
+          <t>Management with Human Resources MSc</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/managementwithinternationalfinance/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/managementwithhumanresources/</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -2885,12 +2885,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Managing Art &amp; Cultural Heritage in Global Markets (Erasmus Mundus International Master) [IntM] - IntM</t>
+          <t>Management with International Finance MSc</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/managingartculturalheritageglobalmarkets/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/managementwithinternationalfinance/</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -2898,12 +2898,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Marketing [MSc/PgDip/PgCert: Online distance learning] - MSc/PgDip/PgCert: Online distance learning</t>
+          <t>Managing Art &amp; Cultural Heritage in Global Markets (Erasmus Mundus International Master) IntM</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/marketingonline/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/managingartculturalheritageglobalmarkets/</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -2911,12 +2911,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Master of Global Business [MGB] - MGB</t>
+          <t>Marketing MSc/PgDip/PgCert: Online distance learning</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/globalbusiness/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/marketingonline/</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -2924,12 +2924,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Material Culture &amp; Artefact Studies [MSc/PgDip] - MSc/PgDip</t>
+          <t>Master of Global Business MGB</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/materialcultureartefactstudies/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/globalbusiness/</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -2937,12 +2937,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>MBA (Master of Business Administration) [MBA] - MBA</t>
+          <t>Material Culture &amp; Artefact Studies MSc/PgDip</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/businessadministration/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/materialcultureartefactstudies/</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -2950,12 +2950,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Mechanical Engineering [MSc] - MSc</t>
+          <t>MBA (Master of Business Administration) MBA</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/mechanicalengineering/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/businessadministration/</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -2963,12 +2963,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Mechanical Engineering &amp; Management [MSc] - MSc</t>
+          <t>Mechanical Engineering MSc</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/mechanicalengineeringmanagement/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/mechanicalengineering/</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -2976,12 +2976,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Mechatronics [MSc] - MSc</t>
+          <t>Mechanical Engineering &amp; Management MSc</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/mechatronics/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/mechanicalengineeringmanagement/</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -2989,12 +2989,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Media Management [MSc] - MSc</t>
+          <t>Mechatronics MSc</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/mediamanagement/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/mechatronics/</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -3002,12 +3002,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Media, Communications &amp; International Journalism [MSc] - MSc</t>
+          <t>Media Management MSc</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/mediacommunicationsinternationaljournalism/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/mediamanagement/</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -3015,12 +3015,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Media, Culture &amp; Society [MSc] - MSc</t>
+          <t>Media, Communications &amp; International Journalism MSc</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/mediaculturesociety/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/mediacommunicationsinternationaljournalism/</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -3028,12 +3028,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Medical Devices Engineering [MSc] - MSc</t>
+          <t>Media, Culture &amp; Society MSc</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/medicaldevicesengineering/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/mediaculturesociety/</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -3041,12 +3041,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Medical Genetics &amp; Genomics [MSc(MedSci)] - MSc(MedSci)</t>
+          <t>Medical Devices Engineering MSc</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/medicalgeneticsandgenomics/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/medicaldevicesengineering/</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -3054,12 +3054,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Medical Physics [MSc] - MSc</t>
+          <t>Medical Genetics &amp; Genomics MSc(MedSci)</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/medicalphysics/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/medicalgeneticsandgenomics/</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -3067,12 +3067,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Medical Visualisation &amp; Human Anatomy [MSc] - MSc</t>
+          <t>Medical Physics MSc</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/medicalvisualisation/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/medicalphysics/</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -3080,12 +3080,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Medieval History [MSc/PgDip] - MSc/PgDip</t>
+          <t>Medical Visualisation &amp; Human Anatomy MSc</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/medievalhistory/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/medicalvisualisation/</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -3093,12 +3093,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Middle Leadership &amp; Management in Schools [PgCert] - PgCert</t>
+          <t>Medieval History MSc/PgDip</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/middleleadershipandmanagementinschools/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/medievalhistory/</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -3106,12 +3106,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Ministry, Theology &amp; Practice [MTh/PgDip/PgCert] - MTh/PgDip/PgCert</t>
+          <t>Middle Leadership &amp; Management in Schools PgCert</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/ministrytheologypractice/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/middleleadershipandmanagementinschools/</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -3119,12 +3119,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Modern History [MSc/PgDip] - MSc/PgDip</t>
+          <t>Ministry, Theology &amp; Practice MTh/PgDip/PgCert</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/modernhistory/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/ministrytheologypractice/</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -3132,12 +3132,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Museum Education [MSc] - MSc</t>
+          <t>Modern History MSc/PgDip</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/museumeducation/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/modernhistory/</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -3145,12 +3145,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Museum Studies [MSc/PgDip/PgCert] - MSc/PgDip/PgCert</t>
+          <t>Museum Education MSc</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/museumstudies/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/museumeducation/</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -3158,12 +3158,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Music Industries [MSc] - MSc</t>
+          <t>Museum Studies MSc/PgDip/PgCert</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/musicindustries/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/museumstudies/</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -3171,12 +3171,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Musicology [MMus] - MMus</t>
+          <t>Music Industries MSc</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/musicology/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/musicindustries/</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -3184,12 +3184,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Nanoscience &amp; Nanotechnology [MSc] - MSc</t>
+          <t>Musicology MMus</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/nanosciencenanotechnology/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/musicology/</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -3197,12 +3197,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Nuclear &amp; Environmental Physics [MSc] - MSc</t>
+          <t>Nanoscience &amp; Nanotechnology MSc</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/nuclearenvironmentalphysics/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/nanosciencenanotechnology/</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -3210,12 +3210,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Nursing Science, Advanced [MSc] - MSc</t>
+          <t>Nuclear &amp; Environmental Physics MSc</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/advanced-nursing-sciences/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/nuclearenvironmentalphysics/</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -3223,12 +3223,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Oral &amp; Maxillofacial Surgery [MSc(DentSci)] - MSc(DentSci)</t>
+          <t>Nursing Science, Advanced MSc</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/oralmaxillofacialsurgery/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/advanced-nursing-sciences/</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -3236,12 +3236,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Oral Sciences [MSc] - MSc</t>
+          <t>Oral &amp; Maxillofacial Surgery MSc(DentSci)</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/oralsciences/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/oralmaxillofacialsurgery/</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -3249,12 +3249,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Palliative Care [MSc/PgDip/PgCert: Online distance learning] - MSc/PgDip/PgCert: Online distance learning</t>
+          <t>Oral Sciences MSc</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/palliativecare/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/oralsciences/</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -3262,12 +3262,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Philosophy [MSc] - MSc</t>
+          <t>Palliative Care MSc/PgDip/PgCert: Online distance learning</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/philosophy/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/palliativecare/</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -3275,12 +3275,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Philosophy (Conversion) [MSc] - MSc</t>
+          <t>Philosophy MSc</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/philosophyconversion/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/philosophy/</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -3288,12 +3288,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Philosophy of Mind &amp; Psychology [MSc] - MSc</t>
+          <t>Philosophy (Conversion) MSc</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/philosophyofmindpsychology/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/philosophyconversion/</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -3301,12 +3301,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Playwriting &amp; Dramaturgy [MLitt] - MLitt</t>
+          <t>Philosophy of Mind &amp; Psychology MSc</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/playwritingdramaturgy/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/philosophyofmindpsychology/</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -3314,12 +3314,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Political Communication [MSc/PgDip] - MSc/PgDip</t>
+          <t>Playwriting &amp; Dramaturgy MLitt</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/politicalcommunicationmscpgdip/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/playwritingdramaturgy/</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -3327,12 +3327,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Positive Behaviour Support [MSc/PgDip/PgCert: Online distance learning] - MSc/PgDip/PgCert: Online distance learning</t>
+          <t>Political Communication MSc/PgDip</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/positive-behaviour-support/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/politicalcommunicationmscpgdip/</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -3340,12 +3340,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Precision Medicine &amp; Pharmacological Innovation [MSc] - MSc</t>
+          <t>Positive Behaviour Support MSc/PgDip/PgCert: Online distance learning</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/precisionmedicine/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/positive-behaviour-support/</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -3353,12 +3353,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Precision Medicine (with specialisms) [MSc] - MSc</t>
+          <t>Precision Medicine &amp; Pharmacological Innovation MSc</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/precisionmedicinewithspecialisms/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/precisionmedicine/</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -3366,12 +3366,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Product Design Engineering [MSc] - MSc</t>
+          <t>Precision Medicine (with specialisms) MSc</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/productdesignengineering/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/precisionmedicinewithspecialisms/</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -3379,12 +3379,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Professional Practice with PGDE [MEd] - MEd</t>
+          <t>Product Design Engineering MSc</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/professionalpracticewithpgde/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/productdesignengineering/</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -3392,12 +3392,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Psychological Science (conversion) [MSc] - MSc</t>
+          <t>Professional Practice with PGDE MEd</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/psychologicalscienceconversion/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/professionalpracticewithpgde/</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -3405,12 +3405,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Psychological Science, Research Methods of [MSc] - MSc</t>
+          <t>Psychological Science (conversion) MSc</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/psychologicalscienceresearchmethodsof/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/psychologicalscienceconversion/</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -3418,12 +3418,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Psychological Studies (conversion) [MSc] - MSc</t>
+          <t>Psychological Science, Research Methods of MSc</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/psychologicalstudiesconversion/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/psychologicalscienceresearchmethodsof/</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -3431,12 +3431,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Psychology (conversion) [MSc: Online distance learning] - MSc: Online distance learning</t>
+          <t>Psychological Studies (conversion) MSc</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/psychologyconversionmsconline/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/psychologicalstudiesconversion/</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -3444,12 +3444,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Public Health [MPH/PgDip/PgCert] - MPH/PgDip/PgCert</t>
+          <t>Psychology (conversion) MSc: Online distance learning</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/publichealth/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/psychologyconversionmsconline/</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -3457,12 +3457,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Public Health (online) [MPH/PgDip/PgCert: Online distance learning] - MPH/PgDip/PgCert: Online distance learning</t>
+          <t>Public Health MPH/PgDip/PgCert</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/publichealthonline/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/publichealth/</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -3470,12 +3470,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Public Policy &amp; Management [MSc] - MSc</t>
+          <t>Public Health (online) MPH/PgDip/PgCert: Online distance learning</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/publicpolicymanagement/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/publichealthonline/</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -3483,12 +3483,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Public Policy Research [MRes] - MRes</t>
+          <t>Public Policy &amp; Management MSc</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/publicpolicyresearch/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/publicpolicymanagement/</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -3496,12 +3496,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Quantitative Finance [MSc] - MSc</t>
+          <t>Public Policy Research MRes</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/quantitativefinance/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/publicpolicyresearch/</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -3509,12 +3509,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Quantitative Methods in Biodiversity, Conservation &amp; Epidemiology [MSc] - MSc</t>
+          <t>Quantitative Finance MSc</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/ecologyepidemiologyconservationbiology/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/quantitativefinance/</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -3522,12 +3522,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Quantum Technology [MSc] - MSc</t>
+          <t>Quantitative Methods in Biodiversity, Conservation &amp; Epidemiology MSc</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/quantumtechnology/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/ecologyepidemiologyconservationbiology/</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -3535,12 +3535,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Real Estate [MSc] - MSc</t>
+          <t>Quantum Technology MSc</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/realestate/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/quantumtechnology/</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -3548,12 +3548,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Real Estate [PgCert] - PgCert</t>
+          <t>Real Estate MSc</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/realestatepgcert/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/realestate/</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -3561,12 +3561,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Religion &amp; Global Challenges [MSc] - MSc</t>
+          <t>Real Estate PgCert</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/religion-global-challenges/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/realestatepgcert/</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -3574,12 +3574,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Religious Education by Distance Learning (CREDL) [Cert: Online distance learning] - Cert: Online distance learning</t>
+          <t>Religion &amp; Global Challenges MSc</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/religiouseducationbydistancelearning/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/religion-global-challenges/</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -3587,12 +3587,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Reparatory Justice [MSc/MA] - MSc/MA</t>
+          <t>Religious Education by Distance Learning (CREDL) Cert: Online distance learning</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/reparatory-justice/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/religiouseducationbydistancelearning/</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -3600,12 +3600,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Robotics &amp; AI [MSc] - MSc</t>
+          <t>Reparatory Justice MSc/MA</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/roboticsai/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/reparatory-justice/</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -3613,12 +3613,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Russian, East European &amp; Eurasian Studies [MSc] - MSc</t>
+          <t>Robotics &amp; AI MSc</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/russiancentraleasteuropeanstudiesmsc/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/roboticsai/</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -3626,12 +3626,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Russian, East European &amp; Eurasian Studies [MRes] - MRes</t>
+          <t>Russian, East European &amp; Eurasian Studies MSc</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/russiancentraleasteuropeanstudiesmres/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/russiancentraleasteuropeanstudiesmsc/</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -3639,12 +3639,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Scottish Book History &amp; Textual Editing [PgCert: Online distance learning] - PgCert: Online distance learning</t>
+          <t>Russian, East European &amp; Eurasian Studies MRes</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/scottish-book-history-textual-editing/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/russiancentraleasteuropeanstudiesmres/</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -3652,12 +3652,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Scottish History [MSc/PgDip] - MSc/PgDip</t>
+          <t>Scottish Book History &amp; Textual Editing PgCert: Online distance learning</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/scottishhistory/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/scottish-book-history-textual-editing/</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -3665,12 +3665,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Security, Intelligence &amp; Strategic Studies (Erasmus Mundus International Master) [IntM] - IntM</t>
+          <t>Scottish History MSc/PgDip</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/internationalsecurity/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/scottishhistory/</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -3678,12 +3678,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Sensor &amp; Imaging Systems [MSc] - MSc</t>
+          <t>Security, Intelligence &amp; Strategic Studies (Erasmus Mundus International Master) IntM</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/sensorandimagingsystems/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/internationalsecurity/</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -3691,12 +3691,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Sociology [MSc] - MSc</t>
+          <t>Sensor &amp; Imaging Systems MSc</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/sociology/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/sensorandimagingsystems/</t>
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -3704,12 +3704,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Sociology &amp; Research Methods [MRes] - MRes</t>
+          <t>Sociology MSc</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/sociologyresearchmethods/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/sociology/</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -3717,12 +3717,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Software Development [MSc] - MSc</t>
+          <t>Sociology &amp; Research Methods MRes</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/softwaredevelopment/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/sociologyresearchmethods/</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -3730,12 +3730,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Sound Design &amp; Audiovisual Practice [MSc] - MSc</t>
+          <t>Software Development MSc</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/sounddesignaudiovisualpractice/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/softwaredevelopment/</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -3743,12 +3743,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>South European Studies (International Master) [IntM] - IntM</t>
+          <t>Sound Design &amp; Audiovisual Practice MSc</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/southeuropeanstudies/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/sounddesignaudiovisualpractice/</t>
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -3756,12 +3756,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Spatial Planning [PgCert] - PgCert</t>
+          <t>South European Studies (International Master) IntM</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/spatialplanningpgcert/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/southeuropeanstudies/</t>
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -3769,12 +3769,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Speech, Language &amp; Sociolinguistics [MSc] - MSc</t>
+          <t>Spatial Planning PgCert</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/speechlanguageandsociolinguistics/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/spatialplanningpgcert/</t>
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -3782,12 +3782,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Sport &amp; Exercise Science &amp; Medicine [MSc] - MSc</t>
+          <t>Speech, Language &amp; Sociolinguistics MSc</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/sportandexercisesciencemedicine/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/speechlanguageandsociolinguistics/</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -3795,12 +3795,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Sport &amp; Exercise Science &amp; Medicine [MSc/PgDip/PgCert: Online distance learning] - MSc/PgDip/PgCert: Online distance learning</t>
+          <t>Sport &amp; Exercise Science &amp; Medicine MSc</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/sportandexercisescienceandmedicineonline/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/sportandexercisesciencemedicine/</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -3808,12 +3808,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Stem Cell Engineering for Regenerative Medicine [MSc] - MSc</t>
+          <t>Sport &amp; Exercise Science &amp; Medicine MSc/PgDip/PgCert: Online distance learning</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/stemcellengineering/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/sportandexercisescienceandmedicineonline/</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -3821,12 +3821,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Structural Engineering [MSc] - MSc</t>
+          <t>Stem Cell Engineering for Regenerative Medicine MSc</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/structuralengineering/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/stemcellengineering/</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -3834,12 +3834,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Sustainable Energy [MSc] - MSc</t>
+          <t>Structural Engineering MSc</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/sustainableenergy/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/structuralengineering/</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -3847,12 +3847,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Sustainable Tourism &amp; Global Challenges (Dumfries campus) [MSc] - MSc</t>
+          <t>Sustainable Energy MSc</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/sustainabletourismglobalchallenges/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/sustainableenergy/</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -3860,12 +3860,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Sustainable Water Environments [MSc] - MSc</t>
+          <t>Sustainable Tourism &amp; Global Challenges (Dumfries campus) MSc</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/sustainablewaterenvironments/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/sustainabletourismglobalchallenges/</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -3873,12 +3873,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>TESOL: Teaching of English to Speakers of Other Languages [MEd] - MEd</t>
+          <t>Sustainable Water Environments MSc</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/tesolmed/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/sustainablewaterenvironments/</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -3886,12 +3886,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>TESOL: Teaching of English to Speakers of Other Languages [MSc] - MSc</t>
+          <t>TESOL: Teaching of English to Speakers of Other Languages MEd</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/tesolmsc/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/tesolmed/</t>
         </is>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -3899,12 +3899,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Textile Conservation [MPhil] - MPhil</t>
+          <t>TESOL: Teaching of English to Speakers of Other Languages MSc</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/textileconservation/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/tesolmsc/</t>
         </is>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -3912,12 +3912,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Theatre &amp; Performance Practices [MLitt] - MLitt</t>
+          <t>Textile Conservation MPhil</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/theatrepractices/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/textileconservation/</t>
         </is>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -3925,12 +3925,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Theatre Studies [MLitt] - MLitt</t>
+          <t>Theatre &amp; Performance Practices MLitt</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/theatrestudies/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/theatrepractices/</t>
         </is>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -3938,12 +3938,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Theoretical Physics [MSc] - MSc</t>
+          <t>Theatre Studies MLitt</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/theoreticalphysics/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/theatrestudies/</t>
         </is>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -3951,12 +3951,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Tourism Development &amp; Culture (Joint Master) (Dumfries campus) [MSc] - MSc</t>
+          <t>Theoretical Physics MSc</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/tourismdevelopmentculture/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/theoreticalphysics/</t>
         </is>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -3964,12 +3964,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Translation Studies [MSc/PgDip/PgCert] - MSc/PgDip/PgCert</t>
+          <t>Tourism Development &amp; Culture (Joint Master) (Dumfries campus) MSc</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/translationstudies/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/tourismdevelopmentculture/</t>
         </is>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -3977,12 +3977,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Urban Analytics [MSc] - MSc</t>
+          <t>Translation Studies MSc/PgDip/PgCert</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/urbananalytics/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/translationstudies/</t>
         </is>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -3990,12 +3990,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Urban Research [MRes] - MRes</t>
+          <t>Urban Analytics MSc</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/urbanresearch/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/urbananalytics/</t>
         </is>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -4003,12 +4003,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Urban Studies [PgCert] - PgCert</t>
+          <t>Urban Research MRes</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/urbanstudies/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/urbanresearch/</t>
         </is>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -4016,12 +4016,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Urban Transport [MSc] - MSc</t>
+          <t>Urban Studies PgCert</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://www.gla.ac.uk//postgraduate/taught/urbantransport/</t>
+          <t>https://www.gla.ac.uk//postgraduate/taught/urbanstudies/</t>
         </is>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -4029,15 +4029,41 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>War Studies [MSc] - MSc</t>
+          <t>Urban Transport MSc</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
+          <t>https://www.gla.ac.uk//postgraduate/taught/urbantransport/</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>War Studies MSc</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
           <t>https://www.gla.ac.uk//postgraduate/taught/warstudies/</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr"/>
+      <c r="C279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Contact us</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://www.gla.ac.uk//postgraduate/taught/contact/</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
